--- a/PC.xlsx
+++ b/PC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C108CD29-65BF-48AF-A9AB-67FBA3931980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208FFD25-6685-4505-89DD-325ABF2E91D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E694DEE-A9F6-40DB-81AD-81217BD1496B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>GENESIS TECHNOLOGIES LTD</t>
   </si>
@@ -141,36 +141,12 @@
     <t>i3</t>
   </si>
   <si>
-    <t>Enamul</t>
-  </si>
-  <si>
-    <t>2️⃣</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>128/1000</t>
-  </si>
-  <si>
-    <t>Mostak</t>
-  </si>
-  <si>
-    <t>Kawser</t>
-  </si>
-  <si>
     <t>1000/2000</t>
   </si>
   <si>
     <t>IT Room</t>
   </si>
   <si>
-    <t>i5</t>
-  </si>
-  <si>
-    <t>Faysal Comercial</t>
-  </si>
-  <si>
     <t>Comercial Room</t>
   </si>
   <si>
@@ -181,22 +157,17 @@
   </si>
   <si>
     <t>Management Room</t>
+  </si>
+  <si>
+    <t>Dual core</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -231,7 +202,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,12 +224,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,66 +298,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,605 +667,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2542DFD7-2ED9-4B8D-BF72-C601E91743C5}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="21"/>
-    <col min="5" max="5" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="4">
         <v>32</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="17">
-        <v>17</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="11">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="10">
         <v>13</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="17">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="11">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="10">
         <v>13</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="10" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="17">
-        <v>19</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="11">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="10">
         <v>13</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="11">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="10">
         <v>13</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="10" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="17">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="16">
-        <v>4</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
+      <c r="D9" s="11">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="18" t="s">
+      <c r="G9" s="10">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="10" t="s">
-        <v>37</v>
+      <c r="J9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="11">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="16">
-        <v>10</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="L10" s="12"/>
+      <c r="M10" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="17">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="16">
-        <v>10</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="18" t="s">
+      <c r="J11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>9</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="17">
-        <v>32</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="16">
-        <v>11</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>10</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="17">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="16">
-        <v>10</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>11</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="17">
-        <v>4</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="16">
-        <v>4</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>12</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>13</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>14</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="10" t="s">
-        <v>47</v>
+      <c r="K12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
